--- a/wash_P/SEY.xlsx
+++ b/wash_P/SEY.xlsx
@@ -71618,7 +71618,7 @@
         <v>0</v>
       </c>
       <c r="CS23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT23" t="n">
         <v>0</v>
@@ -73169,7 +73169,7 @@
         <v>0</v>
       </c>
       <c r="WP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="WQ23" t="n">
         <v>0</v>
@@ -73574,10 +73574,10 @@
         <v>0</v>
       </c>
       <c r="ABU23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABW23" t="n">
         <v>0</v>
@@ -73610,7 +73610,7 @@
         <v>0</v>
       </c>
       <c r="ACG23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACH23" t="n">
         <v>0</v>
